--- a/DataPool/Folha/Cadastros Gerais/Gerais/CBO/CBO.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Gerais/CBO/CBO.xlsx
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
-    <t>FPAS</t>
+    <t>CBO</t>
   </si>
   <si>
     <t>DESCRICAO</t>
   </si>
   <si>
-    <t>73</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Comercio de Testes</t>
@@ -34,10 +34,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -55,7 +55,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,6 +70,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -76,28 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -109,13 +102,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -186,6 +179,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,25 +207,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,157 +375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,21 +398,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,6 +421,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,148 +503,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,7 +980,7 @@
   <dimension ref="C1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1017,8 +1017,6 @@
     </row>
     <row r="2" spans="3:7">
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1036,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
